--- a/Input/Takaful_Mednet/benefits.xlsx
+++ b/Input/Takaful_Mednet/benefits.xlsx
@@ -246,7 +246,7 @@
     <t xml:space="preserve">Nishma P: 0% or 10% or 20% Co-pay should reflect as selected Covered in full with &amp; co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Nishma P: 0% or 10% or 20% Co-pay should reflect as selected 15 sessions per year subject to pre-authorization with $ co-pay</t>
+    <t xml:space="preserve">15 sessions per year subject to pre-authorization with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">OP- Covered in full with 10% co-pay
@@ -299,7 +299,23 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil/Nil/Nil</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% with AED 50 max, All OP services nil co-pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Nil/Nil</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">takaful_emarat_mednet</t>
@@ -311,10 +327,42 @@
     <t xml:space="preserve">2023-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10%/10%/10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20%/20%/20%</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% with AED 50 max, All OP services 10% co-pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/10%/10%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% with AED 50 max, All OP services 20% co-pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/20%/20%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -325,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,6 +406,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +454,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,7 +467,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BI2" activeCellId="0" sqref="BI2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE7" activeCellId="0" sqref="BE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,7 +508,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="40.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="57" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="26.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="62.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="14.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="11.52"/>
   </cols>
@@ -775,7 +839,7 @@
       <c r="BD2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BE2" s="0" t="s">
+      <c r="BE2" s="3" t="s">
         <v>88</v>
       </c>
       <c r="BF2" s="1" t="s">
@@ -784,17 +848,17 @@
       <c r="BG2" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE3" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE4" s="5" t="s">
         <v>93</v>
       </c>
     </row>
